--- a/uploads/fiche_location.xlsx
+++ b/uploads/fiche_location.xlsx
@@ -402,7 +402,7 @@
         <v>Immatriculation:</v>
       </c>
       <c r="B3" t="str">
-        <v>7232XV31</v>
+        <v>FA-235-FB 31</v>
       </c>
     </row>
     <row r="4">
